--- a/Code/Results/Cases/Case_6_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9929114506836721</v>
+        <v>1.00441783034934</v>
       </c>
       <c r="D2">
-        <v>1.011594212815909</v>
+        <v>1.020996721639522</v>
       </c>
       <c r="E2">
-        <v>1.000018339472432</v>
+        <v>1.010243755282915</v>
       </c>
       <c r="F2">
-        <v>0.9999353041003886</v>
+        <v>1.009756468845619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038559036613695</v>
+        <v>1.042908149453803</v>
       </c>
       <c r="J2">
-        <v>1.015306266107253</v>
+        <v>1.026467203032294</v>
       </c>
       <c r="K2">
-        <v>1.022894350848406</v>
+        <v>1.032171088055111</v>
       </c>
       <c r="L2">
-        <v>1.011477418802832</v>
+        <v>1.021562199460846</v>
       </c>
       <c r="M2">
-        <v>1.011395540313065</v>
+        <v>1.021081533569505</v>
       </c>
       <c r="N2">
-        <v>1.016748117462381</v>
+        <v>1.027924904198035</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9992703345303358</v>
+        <v>1.008539924362561</v>
       </c>
       <c r="D3">
-        <v>1.016366840691906</v>
+        <v>1.024026456806075</v>
       </c>
       <c r="E3">
-        <v>1.005243511609889</v>
+        <v>1.013511368029528</v>
       </c>
       <c r="F3">
-        <v>1.006753882709117</v>
+        <v>1.014727202778558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040483106350821</v>
+        <v>1.04415130350188</v>
       </c>
       <c r="J3">
-        <v>1.019780910745949</v>
+        <v>1.028800459115601</v>
       </c>
       <c r="K3">
-        <v>1.026794501610273</v>
+        <v>1.034360874114798</v>
       </c>
       <c r="L3">
-        <v>1.015809737496389</v>
+        <v>1.023974238700448</v>
       </c>
       <c r="M3">
-        <v>1.017301069605051</v>
+        <v>1.025175051301744</v>
       </c>
       <c r="N3">
-        <v>1.021229116609714</v>
+        <v>1.030261473772607</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003273897293231</v>
+        <v>1.011155336999249</v>
       </c>
       <c r="D4">
-        <v>1.019374041951643</v>
+        <v>1.025951430153899</v>
       </c>
       <c r="E4">
-        <v>1.008539551681419</v>
+        <v>1.015590383550531</v>
       </c>
       <c r="F4">
-        <v>1.011050096596058</v>
+        <v>1.017882500807244</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041682887937122</v>
+        <v>1.044931544882805</v>
       </c>
       <c r="J4">
-        <v>1.022594225590081</v>
+        <v>1.030277929499951</v>
       </c>
       <c r="K4">
-        <v>1.029244130118372</v>
+        <v>1.035746417303549</v>
       </c>
       <c r="L4">
-        <v>1.018535992936943</v>
+        <v>1.025504218478237</v>
       </c>
       <c r="M4">
-        <v>1.021016961266157</v>
+        <v>1.027769786238582</v>
       </c>
       <c r="N4">
-        <v>1.024046426683616</v>
+        <v>1.031741042334371</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004931724261217</v>
+        <v>1.012242854254924</v>
       </c>
       <c r="D5">
-        <v>1.020619759366994</v>
+        <v>1.026752447525597</v>
       </c>
       <c r="E5">
-        <v>1.009905828352085</v>
+        <v>1.016456205955363</v>
       </c>
       <c r="F5">
-        <v>1.01282989767268</v>
+        <v>1.019194902705978</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042176863949743</v>
+        <v>1.045253904189964</v>
       </c>
       <c r="J5">
-        <v>1.023758190255415</v>
+        <v>1.030891545017207</v>
       </c>
       <c r="K5">
-        <v>1.030257006710904</v>
+        <v>1.0363215865627</v>
       </c>
       <c r="L5">
-        <v>1.019664511735728</v>
+        <v>1.026140269912636</v>
       </c>
       <c r="M5">
-        <v>1.022555124048012</v>
+        <v>1.028848118675628</v>
       </c>
       <c r="N5">
-        <v>1.025212044312283</v>
+        <v>1.032355529256044</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005208635319985</v>
+        <v>1.012424761009197</v>
       </c>
       <c r="D6">
-        <v>1.020827859887384</v>
+        <v>1.026886465634098</v>
       </c>
       <c r="E6">
-        <v>1.010134122755196</v>
+        <v>1.016601108279622</v>
       </c>
       <c r="F6">
-        <v>1.013127229342262</v>
+        <v>1.019414450044279</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042259205589669</v>
+        <v>1.045307701845513</v>
       </c>
       <c r="J6">
-        <v>1.023952550243119</v>
+        <v>1.030994139404305</v>
       </c>
       <c r="K6">
-        <v>1.03042610086722</v>
+        <v>1.036417736889991</v>
       </c>
       <c r="L6">
-        <v>1.019852986450683</v>
+        <v>1.026246652399758</v>
       </c>
       <c r="M6">
-        <v>1.022812015181807</v>
+        <v>1.029028455287631</v>
       </c>
       <c r="N6">
-        <v>1.025406680313463</v>
+        <v>1.03245826933894</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003296146884458</v>
+        <v>1.0111699150857</v>
       </c>
       <c r="D7">
-        <v>1.019390758897854</v>
+        <v>1.025962165447304</v>
       </c>
       <c r="E7">
-        <v>1.00855788285013</v>
+        <v>1.015601984570252</v>
       </c>
       <c r="F7">
-        <v>1.011073980044725</v>
+        <v>1.017900091833293</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041689528856169</v>
+        <v>1.044935874312129</v>
       </c>
       <c r="J7">
-        <v>1.02260985109013</v>
+        <v>1.030286157897004</v>
       </c>
       <c r="K7">
-        <v>1.029257729831042</v>
+        <v>1.035754131216495</v>
       </c>
       <c r="L7">
-        <v>1.018551140338608</v>
+        <v>1.025512745253929</v>
       </c>
       <c r="M7">
-        <v>1.021037607008118</v>
+        <v>1.027784243489947</v>
       </c>
       <c r="N7">
-        <v>1.024062074373668</v>
+        <v>1.031749282416692</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9950842856087674</v>
+        <v>1.005821903570424</v>
       </c>
       <c r="D8">
-        <v>1.013224470512467</v>
+        <v>1.022028132688555</v>
       </c>
       <c r="E8">
-        <v>1.001802416112153</v>
+        <v>1.011355543939576</v>
       </c>
       <c r="F8">
-        <v>1.002264547929461</v>
+        <v>1.011449337576758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039218906990515</v>
+        <v>1.043333362714652</v>
       </c>
       <c r="J8">
-        <v>1.01683604963337</v>
+        <v>1.027262562214617</v>
       </c>
       <c r="K8">
-        <v>1.024228238707092</v>
+        <v>1.032917762266301</v>
       </c>
       <c r="L8">
-        <v>1.012958027755215</v>
+        <v>1.022383863144081</v>
       </c>
       <c r="M8">
-        <v>1.013413931604069</v>
+        <v>1.022476421957196</v>
       </c>
       <c r="N8">
-        <v>1.018280073456575</v>
+        <v>1.028721392881625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9796986014020899</v>
+        <v>0.9959812870339443</v>
       </c>
       <c r="D9">
-        <v>1.001694947954493</v>
+        <v>1.014812407506439</v>
       </c>
       <c r="E9">
-        <v>0.9891999217423616</v>
+        <v>1.003589430153574</v>
       </c>
       <c r="F9">
-        <v>0.9857844560006416</v>
+        <v>0.9995885607254306</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034498710191354</v>
+        <v>1.040318284007216</v>
       </c>
       <c r="J9">
-        <v>1.005989200767647</v>
+        <v>1.021676758931952</v>
       </c>
       <c r="K9">
-        <v>1.01476058553691</v>
+        <v>1.027669649570911</v>
       </c>
       <c r="L9">
-        <v>1.002470687227014</v>
+        <v>1.016624538565328</v>
       </c>
       <c r="M9">
-        <v>0.9991124594359072</v>
+        <v>1.012688316773653</v>
       </c>
       <c r="N9">
-        <v>1.007417820821311</v>
+        <v>1.023127657117598</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9687256920117481</v>
+        <v>0.9891116591341831</v>
       </c>
       <c r="D10">
-        <v>0.9934954284506065</v>
+        <v>1.009793858972303</v>
       </c>
       <c r="E10">
-        <v>0.9802551718712852</v>
+        <v>0.9982028596318435</v>
       </c>
       <c r="F10">
-        <v>0.9740468124835483</v>
+        <v>0.9913110404516836</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031073960644591</v>
+        <v>1.038170443709589</v>
       </c>
       <c r="J10">
-        <v>0.9982375328104151</v>
+        <v>1.017764038426997</v>
       </c>
       <c r="K10">
-        <v>1.00798312655092</v>
+        <v>1.023988505518495</v>
       </c>
       <c r="L10">
-        <v>0.994990317401902</v>
+        <v>1.012604637992356</v>
       </c>
       <c r="M10">
-        <v>0.988901022074236</v>
+        <v>1.005838969165114</v>
       </c>
       <c r="N10">
-        <v>0.9996551446064512</v>
+        <v>1.01920938010073</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9637787685394694</v>
+        <v>0.9860566936921475</v>
       </c>
       <c r="D11">
-        <v>0.9898061352370172</v>
+        <v>1.007567220178427</v>
       </c>
       <c r="E11">
-        <v>0.976234411681824</v>
+        <v>0.9958163248959815</v>
       </c>
       <c r="F11">
-        <v>0.9687585094956304</v>
+        <v>0.9876296380247879</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029517031883384</v>
+        <v>1.037205500864357</v>
       </c>
       <c r="J11">
-        <v>0.9947400792751725</v>
+        <v>1.016021259016716</v>
       </c>
       <c r="K11">
-        <v>1.004922887871652</v>
+        <v>1.022347826982531</v>
       </c>
       <c r="L11">
-        <v>0.9916188738085876</v>
+        <v>1.010817572844849</v>
       </c>
       <c r="M11">
-        <v>0.9842946646146888</v>
+        <v>1.002788673623289</v>
       </c>
       <c r="N11">
-        <v>0.996152724286025</v>
+        <v>1.017464125743787</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.961909382325449</v>
+        <v>0.9849092266672544</v>
       </c>
       <c r="D12">
-        <v>0.9884132581007792</v>
+        <v>1.00673171410088</v>
       </c>
       <c r="E12">
-        <v>0.9747169317035247</v>
+        <v>0.994921320013888</v>
       </c>
       <c r="F12">
-        <v>0.9667605923017324</v>
+        <v>0.9862467431577923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028926825463965</v>
+        <v>1.03684162851777</v>
       </c>
       <c r="J12">
-        <v>0.9934181087712266</v>
+        <v>1.01536627713162</v>
       </c>
       <c r="K12">
-        <v>1.003765860163319</v>
+        <v>1.021731071585047</v>
       </c>
       <c r="L12">
-        <v>0.9903450924200172</v>
+        <v>1.010146470646286</v>
       </c>
       <c r="M12">
-        <v>0.9825535694892906</v>
+        <v>1.001642263953799</v>
       </c>
       <c r="N12">
-        <v>0.9948288764323315</v>
+        <v>1.016808213709287</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9623118578033864</v>
+        <v>0.9851559484880144</v>
       </c>
       <c r="D13">
-        <v>0.9887130820781883</v>
+        <v>1.006911321061399</v>
       </c>
       <c r="E13">
-        <v>0.9750435532605463</v>
+        <v>0.9951136949029876</v>
       </c>
       <c r="F13">
-        <v>0.967190719576734</v>
+        <v>0.9865440927607712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029053978412409</v>
+        <v>1.036919930408457</v>
       </c>
       <c r="J13">
-        <v>0.9937027396175666</v>
+        <v>1.01550712426862</v>
       </c>
       <c r="K13">
-        <v>1.004014991182563</v>
+        <v>1.021863704900598</v>
       </c>
       <c r="L13">
-        <v>0.9906193221784805</v>
+        <v>1.010290760564237</v>
       </c>
       <c r="M13">
-        <v>0.9829284423338228</v>
+        <v>1.00188879064192</v>
       </c>
       <c r="N13">
-        <v>0.9951139114871208</v>
+        <v>1.016949260865376</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.963624910256371</v>
+        <v>0.9859621069944591</v>
       </c>
       <c r="D14">
-        <v>0.9896914689565209</v>
+        <v>1.007498331332377</v>
       </c>
       <c r="E14">
-        <v>0.976109476915839</v>
+        <v>0.9957425201803657</v>
       </c>
       <c r="F14">
-        <v>0.9685940632180664</v>
+        <v>0.9875156480207792</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029468492675132</v>
+        <v>1.037175535462481</v>
       </c>
       <c r="J14">
-        <v>0.994631281569072</v>
+        <v>1.015967275843987</v>
       </c>
       <c r="K14">
-        <v>1.004827671101229</v>
+        <v>1.022296997304762</v>
       </c>
       <c r="L14">
-        <v>0.9915140305807282</v>
+        <v>1.010762250379776</v>
       </c>
       <c r="M14">
-        <v>0.9841513734123523</v>
+        <v>1.002694188509879</v>
       </c>
       <c r="N14">
-        <v>0.9960437720747027</v>
+        <v>1.017410065908761</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9644296214827682</v>
+        <v>0.9864571028207313</v>
       </c>
       <c r="D15">
-        <v>0.9902912502317116</v>
+        <v>1.007858878324851</v>
       </c>
       <c r="E15">
-        <v>0.9767629910257508</v>
+        <v>0.9961288159091279</v>
       </c>
       <c r="F15">
-        <v>0.9694541708708898</v>
+        <v>0.9881121802435344</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02972228780446</v>
+        <v>1.037332293705842</v>
       </c>
       <c r="J15">
-        <v>0.9952003039431233</v>
+        <v>1.016249767937036</v>
       </c>
       <c r="K15">
-        <v>1.00532565124891</v>
+        <v>1.022562981398296</v>
       </c>
       <c r="L15">
-        <v>0.9920623935337398</v>
+        <v>1.01105177230711</v>
       </c>
       <c r="M15">
-        <v>0.984900800140689</v>
+        <v>1.003188624049155</v>
       </c>
       <c r="N15">
-        <v>0.996613602525793</v>
+        <v>1.017692959172985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9690496758348482</v>
+        <v>0.9893126599767355</v>
       </c>
       <c r="D16">
-        <v>0.9937372126914154</v>
+        <v>1.009940472660851</v>
       </c>
       <c r="E16">
-        <v>0.9805187561012187</v>
+        <v>0.9983600715927611</v>
       </c>
       <c r="F16">
-        <v>0.9743932211788083</v>
+        <v>0.9915532436771933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031175665583043</v>
+        <v>1.038233731074159</v>
       </c>
       <c r="J16">
-        <v>0.9984665382922034</v>
+        <v>1.017878649429903</v>
       </c>
       <c r="K16">
-        <v>1.008183458643661</v>
+        <v>1.024096381190615</v>
       </c>
       <c r="L16">
-        <v>0.9952111482067681</v>
+        <v>1.012722233698573</v>
       </c>
       <c r="M16">
-        <v>0.9892026454291089</v>
+        <v>1.006039568517921</v>
       </c>
       <c r="N16">
-        <v>0.9998844753022912</v>
+        <v>1.019324153864406</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9718936771820549</v>
+        <v>0.991081917984055</v>
       </c>
       <c r="D17">
-        <v>0.9958604922638444</v>
+        <v>1.011231594777599</v>
       </c>
       <c r="E17">
-        <v>0.9828339076881579</v>
+        <v>0.9997449104150348</v>
       </c>
       <c r="F17">
-        <v>0.9774344520450553</v>
+        <v>0.9936851270070334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032066999554224</v>
+        <v>1.038789691580939</v>
       </c>
       <c r="J17">
-        <v>1.000476496638198</v>
+        <v>1.018887171915057</v>
       </c>
       <c r="K17">
-        <v>1.009941493437452</v>
+        <v>1.025045518225386</v>
       </c>
       <c r="L17">
-        <v>0.9971497675445331</v>
+        <v>1.013757413754507</v>
       </c>
       <c r="M17">
-        <v>0.9918500538080267</v>
+        <v>1.007804792255029</v>
       </c>
       <c r="N17">
-        <v>1.001897288019682</v>
+        <v>1.020334108567168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9735338471503515</v>
+        <v>0.9921061871587696</v>
       </c>
       <c r="D18">
-        <v>0.9970856891889799</v>
+        <v>1.011979542568844</v>
       </c>
       <c r="E18">
-        <v>0.9841701853495095</v>
+        <v>1.000547471251338</v>
       </c>
       <c r="F18">
-        <v>0.9791886881444017</v>
+        <v>0.994919302941833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032579817569479</v>
+        <v>1.039110619760089</v>
       </c>
       <c r="J18">
-        <v>1.001635397161248</v>
+        <v>1.019470766381364</v>
       </c>
       <c r="K18">
-        <v>1.010954917765911</v>
+        <v>1.025594648479477</v>
       </c>
       <c r="L18">
-        <v>0.998267873402121</v>
+        <v>1.014356761315215</v>
       </c>
       <c r="M18">
-        <v>0.993376588947974</v>
+        <v>1.00882631594729</v>
       </c>
       <c r="N18">
-        <v>1.003057834314403</v>
+        <v>1.020918531804556</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9740900041335369</v>
+        <v>0.99245414767963</v>
       </c>
       <c r="D19">
-        <v>0.9975012449731901</v>
+        <v>1.012233712552304</v>
       </c>
       <c r="E19">
-        <v>0.9846234798077738</v>
+        <v>1.000820255077312</v>
       </c>
       <c r="F19">
-        <v>0.9797835787637172</v>
+        <v>0.9953385700195734</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032753496252802</v>
+        <v>1.03921948502713</v>
       </c>
       <c r="J19">
-        <v>1.002028315042861</v>
+        <v>1.019668976691164</v>
       </c>
       <c r="K19">
-        <v>1.011298474172633</v>
+        <v>1.025781136154898</v>
       </c>
       <c r="L19">
-        <v>0.9986470169229609</v>
+        <v>1.014560377359693</v>
       </c>
       <c r="M19">
-        <v>0.9938941702668191</v>
+        <v>1.009173275483603</v>
       </c>
       <c r="N19">
-        <v>1.003451310184476</v>
+        <v>1.021117023595732</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9715904928541991</v>
+        <v>0.9908928952339841</v>
       </c>
       <c r="D20">
-        <v>0.9956340690102375</v>
+        <v>1.01109360414342</v>
       </c>
       <c r="E20">
-        <v>0.982586985862841</v>
+        <v>0.9995968702478845</v>
       </c>
       <c r="F20">
-        <v>0.9771102089374625</v>
+        <v>0.9934573656561586</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031972105724257</v>
+        <v>1.038730390650953</v>
       </c>
       <c r="J20">
-        <v>1.000262252418715</v>
+        <v>1.018779451368709</v>
       </c>
       <c r="K20">
-        <v>1.009754124950061</v>
+        <v>1.024944150954866</v>
       </c>
       <c r="L20">
-        <v>0.9969430922142215</v>
+        <v>1.01364681191213</v>
       </c>
       <c r="M20">
-        <v>0.9915678539343287</v>
+        <v>1.007616243337526</v>
       </c>
       <c r="N20">
-        <v>1.001682739548834</v>
+        <v>1.020226235045289</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9632391505228515</v>
+        <v>0.9857250698277328</v>
       </c>
       <c r="D21">
-        <v>0.9894039939479473</v>
+        <v>1.007325707450762</v>
       </c>
       <c r="E21">
-        <v>0.9757962667983908</v>
+        <v>0.9955575859668414</v>
       </c>
       <c r="F21">
-        <v>0.9681817643024899</v>
+        <v>0.9872299831283395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029346763568907</v>
+        <v>1.037100418290097</v>
       </c>
       <c r="J21">
-        <v>0.9943584946855296</v>
+        <v>1.015831986332052</v>
       </c>
       <c r="K21">
-        <v>1.004588930536863</v>
+        <v>1.022169608593099</v>
       </c>
       <c r="L21">
-        <v>0.9912511677722584</v>
+        <v>1.010623612858687</v>
       </c>
       <c r="M21">
-        <v>0.9837921013946987</v>
+        <v>1.002457394538228</v>
       </c>
       <c r="N21">
-        <v>0.9957705978024967</v>
+        <v>1.017274584270201</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9578024354194107</v>
+        <v>0.9824019270522825</v>
       </c>
       <c r="D22">
-        <v>0.9853557087840872</v>
+        <v>1.004907679985081</v>
       </c>
       <c r="E22">
-        <v>0.9713868175274966</v>
+        <v>0.9929682975485362</v>
       </c>
       <c r="F22">
-        <v>0.9623720953930993</v>
+        <v>0.9832246742053735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027626841120823</v>
+        <v>1.036043948836987</v>
       </c>
       <c r="J22">
-        <v>0.9905133220392937</v>
+        <v>1.013934431750338</v>
       </c>
       <c r="K22">
-        <v>1.00122296317125</v>
+        <v>1.020382537702619</v>
       </c>
       <c r="L22">
-        <v>0.9875472465644669</v>
+        <v>1.008680352816045</v>
       </c>
       <c r="M22">
-        <v>0.978727730036416</v>
+        <v>0.9991359429800778</v>
       </c>
       <c r="N22">
-        <v>0.9919199645700554</v>
+        <v>1.015374334943328</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9607030726066101</v>
+        <v>0.9841708211010752</v>
       </c>
       <c r="D23">
-        <v>0.9875148172444794</v>
+        <v>1.006194301813122</v>
       </c>
       <c r="E23">
-        <v>0.9737382666503134</v>
+        <v>0.994345776466388</v>
       </c>
       <c r="F23">
-        <v>0.965471470074884</v>
+        <v>0.9853567891016718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028545453561155</v>
+        <v>1.03660707434615</v>
       </c>
       <c r="J23">
-        <v>0.9925649663074163</v>
+        <v>1.014944687237478</v>
       </c>
       <c r="K23">
-        <v>1.003019080138374</v>
+        <v>1.021334047224996</v>
       </c>
       <c r="L23">
-        <v>0.9895232093881781</v>
+        <v>1.009714652748062</v>
       </c>
       <c r="M23">
-        <v>0.9814299320765623</v>
+        <v>1.000904336768178</v>
       </c>
       <c r="N23">
-        <v>0.9939745224083657</v>
+        <v>1.016386025109138</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9717275463679274</v>
+        <v>0.9909783302551076</v>
       </c>
       <c r="D24">
-        <v>0.9957364208375243</v>
+        <v>1.011155972033655</v>
       </c>
       <c r="E24">
-        <v>0.9826986026805978</v>
+        <v>0.9996637792432154</v>
       </c>
       <c r="F24">
-        <v>0.9772567810049234</v>
+        <v>0.9935603099320037</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032015005989223</v>
+        <v>1.038757196539187</v>
       </c>
       <c r="J24">
-        <v>1.000359101673741</v>
+        <v>1.018828140021692</v>
       </c>
       <c r="K24">
-        <v>1.009838825703689</v>
+        <v>1.024989968299283</v>
       </c>
       <c r="L24">
-        <v>0.9970365188993483</v>
+        <v>1.013696801868599</v>
       </c>
       <c r="M24">
-        <v>0.9916954222913998</v>
+        <v>1.007701465462096</v>
       </c>
       <c r="N24">
-        <v>1.00177972634091</v>
+        <v>1.020274992841744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9837943580311262</v>
+        <v>0.9985775858181929</v>
       </c>
       <c r="D25">
-        <v>1.00476075158902</v>
+        <v>1.016713172550709</v>
       </c>
       <c r="E25">
-        <v>0.9925478675463403</v>
+        <v>1.005632587345262</v>
       </c>
       <c r="F25">
-        <v>0.9901687504774471</v>
+        <v>1.002717162419007</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035765490252924</v>
+        <v>1.041121330006527</v>
       </c>
       <c r="J25">
-        <v>1.008879691505102</v>
+        <v>1.023152914880479</v>
       </c>
       <c r="K25">
-        <v>1.017285609842237</v>
+        <v>1.029057462156781</v>
       </c>
       <c r="L25">
-        <v>1.005262980415176</v>
+        <v>1.01814408941406</v>
       </c>
       <c r="M25">
-        <v>1.002921625519129</v>
+        <v>1.01527344387161</v>
       </c>
       <c r="N25">
-        <v>1.010312416387157</v>
+        <v>1.024605909376889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00441783034934</v>
+        <v>1.002947515601139</v>
       </c>
       <c r="D2">
-        <v>1.020996721639522</v>
+        <v>1.021744334311339</v>
       </c>
       <c r="E2">
-        <v>1.010243755282915</v>
+        <v>1.0090247750182</v>
       </c>
       <c r="F2">
-        <v>1.009756468845619</v>
+        <v>1.008747386873394</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042908149453803</v>
+        <v>1.042862145063768</v>
       </c>
       <c r="J2">
-        <v>1.026467203032294</v>
+        <v>1.025040422977344</v>
       </c>
       <c r="K2">
-        <v>1.032171088055111</v>
+        <v>1.032908824977786</v>
       </c>
       <c r="L2">
-        <v>1.021562199460846</v>
+        <v>1.020359796059957</v>
       </c>
       <c r="M2">
-        <v>1.021081533569505</v>
+        <v>1.020086187148907</v>
       </c>
       <c r="N2">
-        <v>1.027924904198035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012291198090968</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034339610108795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008539924362561</v>
+        <v>1.006346277462969</v>
       </c>
       <c r="D3">
-        <v>1.024026456806075</v>
+        <v>1.023953267440032</v>
       </c>
       <c r="E3">
-        <v>1.013511368029528</v>
+        <v>1.011660824371084</v>
       </c>
       <c r="F3">
-        <v>1.014727202778558</v>
+        <v>1.013067370449077</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04415130350188</v>
+        <v>1.043672344028536</v>
       </c>
       <c r="J3">
-        <v>1.028800459115601</v>
+        <v>1.026665419047789</v>
       </c>
       <c r="K3">
-        <v>1.034360874114798</v>
+        <v>1.034288567516986</v>
       </c>
       <c r="L3">
-        <v>1.023974238700448</v>
+        <v>1.022146645605769</v>
       </c>
       <c r="M3">
-        <v>1.025175051301744</v>
+        <v>1.023535738087413</v>
       </c>
       <c r="N3">
-        <v>1.030261473772607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012837395711407</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03531253807498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011155336999249</v>
+        <v>1.008509306937476</v>
       </c>
       <c r="D4">
-        <v>1.025951430153899</v>
+        <v>1.025363269262513</v>
       </c>
       <c r="E4">
-        <v>1.015590383550531</v>
+        <v>1.013344207665336</v>
       </c>
       <c r="F4">
-        <v>1.017882500807244</v>
+        <v>1.015816903226328</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044931544882805</v>
+        <v>1.044180629574033</v>
       </c>
       <c r="J4">
-        <v>1.030277929499951</v>
+        <v>1.027697820313023</v>
       </c>
       <c r="K4">
-        <v>1.035746417303549</v>
+        <v>1.035164923703927</v>
       </c>
       <c r="L4">
-        <v>1.025504218478237</v>
+        <v>1.023284204062945</v>
       </c>
       <c r="M4">
-        <v>1.027769786238582</v>
+        <v>1.025728107791714</v>
       </c>
       <c r="N4">
-        <v>1.031741042334371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013184398004159</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035933104126832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012242854254924</v>
+        <v>1.00941275418997</v>
       </c>
       <c r="D5">
-        <v>1.026752447525597</v>
+        <v>1.025955282464045</v>
       </c>
       <c r="E5">
-        <v>1.016456205955363</v>
+        <v>1.014048964868899</v>
       </c>
       <c r="F5">
-        <v>1.019194902705978</v>
+        <v>1.016964596526326</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045253904189964</v>
+        <v>1.044392430517664</v>
       </c>
       <c r="J5">
-        <v>1.030891545017207</v>
+        <v>1.028129850137555</v>
       </c>
       <c r="K5">
-        <v>1.0363215865627</v>
+        <v>1.035533218046636</v>
       </c>
       <c r="L5">
-        <v>1.026140269912636</v>
+        <v>1.023760313040331</v>
       </c>
       <c r="M5">
-        <v>1.028848118675628</v>
+        <v>1.026642918626855</v>
       </c>
       <c r="N5">
-        <v>1.032355529256044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013329799667702</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036200729085384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012424761009197</v>
+        <v>1.009567040416479</v>
       </c>
       <c r="D6">
-        <v>1.026886465634098</v>
+        <v>1.026059000856274</v>
       </c>
       <c r="E6">
-        <v>1.016601108279622</v>
+        <v>1.014169751249561</v>
       </c>
       <c r="F6">
-        <v>1.019414450044279</v>
+        <v>1.017159595915305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045307701845513</v>
+        <v>1.044430061015229</v>
       </c>
       <c r="J6">
-        <v>1.030994139404305</v>
+        <v>1.028205137625983</v>
       </c>
       <c r="K6">
-        <v>1.036417736889991</v>
+        <v>1.035599361326824</v>
       </c>
       <c r="L6">
-        <v>1.026246652399758</v>
+        <v>1.023842725729777</v>
       </c>
       <c r="M6">
-        <v>1.029028455287631</v>
+        <v>1.026798862035771</v>
       </c>
       <c r="N6">
-        <v>1.03245826933894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01335537549466</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036256287530821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0111699150857</v>
+        <v>1.008529688505575</v>
       </c>
       <c r="D7">
-        <v>1.025962165447304</v>
+        <v>1.02538346798586</v>
       </c>
       <c r="E7">
-        <v>1.015601984570252</v>
+        <v>1.013361051413412</v>
       </c>
       <c r="F7">
-        <v>1.017900091833293</v>
+        <v>1.015840096915138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044935874312129</v>
+        <v>1.044189611019647</v>
       </c>
       <c r="J7">
-        <v>1.030286157897004</v>
+        <v>1.027711680523863</v>
       </c>
       <c r="K7">
-        <v>1.035754131216495</v>
+        <v>1.03518199133727</v>
       </c>
       <c r="L7">
-        <v>1.025512745253929</v>
+        <v>1.023297902860062</v>
       </c>
       <c r="M7">
-        <v>1.027784243489947</v>
+        <v>1.025748093664151</v>
       </c>
       <c r="N7">
-        <v>1.031749282416692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013189709346002</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035965387778723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005821903570424</v>
+        <v>1.004114099952228</v>
       </c>
       <c r="D8">
-        <v>1.022028132688555</v>
+        <v>1.022510076563946</v>
       </c>
       <c r="E8">
-        <v>1.011355543939576</v>
+        <v>1.009929585110448</v>
       </c>
       <c r="F8">
-        <v>1.011449337576758</v>
+        <v>1.010226802759529</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043333362714652</v>
+        <v>1.043146906321095</v>
       </c>
       <c r="J8">
-        <v>1.027262562214617</v>
+        <v>1.025603630314291</v>
       </c>
       <c r="K8">
-        <v>1.032917762266301</v>
+        <v>1.033393528717877</v>
       </c>
       <c r="L8">
-        <v>1.022383863144081</v>
+        <v>1.020976712965896</v>
       </c>
       <c r="M8">
-        <v>1.022476421957196</v>
+        <v>1.021270004767405</v>
       </c>
       <c r="N8">
-        <v>1.028721392881625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012481350509744</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034705372035978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9959812870339443</v>
+        <v>0.9960313238368121</v>
       </c>
       <c r="D9">
-        <v>1.014812407506439</v>
+        <v>1.017274062061805</v>
       </c>
       <c r="E9">
-        <v>1.003589430153574</v>
+        <v>1.003693469511733</v>
       </c>
       <c r="F9">
-        <v>0.9995885607254306</v>
+        <v>0.9999552159811668</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040318284007216</v>
+        <v>1.041174585615158</v>
       </c>
       <c r="J9">
-        <v>1.021676758931952</v>
+        <v>1.021725008892987</v>
       </c>
       <c r="K9">
-        <v>1.027669649570911</v>
+        <v>1.030092961452473</v>
       </c>
       <c r="L9">
-        <v>1.016624538565328</v>
+        <v>1.016726905634233</v>
       </c>
       <c r="M9">
-        <v>1.012688316773653</v>
+        <v>1.013049019816544</v>
       </c>
       <c r="N9">
-        <v>1.023127657117598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011176920475184</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032368435630252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9891116591341831</v>
+        <v>0.9904345731821979</v>
       </c>
       <c r="D10">
-        <v>1.009793858972303</v>
+        <v>1.013676359022035</v>
       </c>
       <c r="E10">
-        <v>0.9982028596318435</v>
+        <v>0.999409380164955</v>
       </c>
       <c r="F10">
-        <v>0.9913110404516836</v>
+        <v>0.992837716849883</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038170443709589</v>
+        <v>1.039773216755111</v>
       </c>
       <c r="J10">
-        <v>1.017764038426997</v>
+        <v>1.019032912569449</v>
       </c>
       <c r="K10">
-        <v>1.023988505518495</v>
+        <v>1.027802996402296</v>
       </c>
       <c r="L10">
-        <v>1.012604637992356</v>
+        <v>1.013789306629812</v>
       </c>
       <c r="M10">
-        <v>1.005838969165114</v>
+        <v>1.00733750397956</v>
       </c>
       <c r="N10">
-        <v>1.01920938010073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010271922487715</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030766184037624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9860566936921475</v>
+        <v>0.9879675923902914</v>
       </c>
       <c r="D11">
-        <v>1.007567220178427</v>
+        <v>1.012105241485056</v>
       </c>
       <c r="E11">
-        <v>0.9958163248959815</v>
+        <v>0.9975308215806791</v>
       </c>
       <c r="F11">
-        <v>0.9876296380247879</v>
+        <v>0.9896951734910028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037205500864357</v>
+        <v>1.039151978894635</v>
       </c>
       <c r="J11">
-        <v>1.016021259016716</v>
+        <v>1.017849644392884</v>
       </c>
       <c r="K11">
-        <v>1.022347826982531</v>
+        <v>1.026802425236716</v>
       </c>
       <c r="L11">
-        <v>1.010817572844849</v>
+        <v>1.012499453701379</v>
       </c>
       <c r="M11">
-        <v>1.002788673623289</v>
+        <v>1.00481407589083</v>
       </c>
       <c r="N11">
-        <v>1.017464125743787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00987518189721</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030091782760818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9849092266672544</v>
+        <v>0.9870370147624751</v>
       </c>
       <c r="D12">
-        <v>1.00673171410088</v>
+        <v>1.011509042157571</v>
       </c>
       <c r="E12">
-        <v>0.994921320013888</v>
+        <v>0.9968227262162989</v>
       </c>
       <c r="F12">
-        <v>0.9862467431577923</v>
+        <v>0.9885112655567065</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03684162851777</v>
+        <v>1.038913652970738</v>
       </c>
       <c r="J12">
-        <v>1.01536627713162</v>
+        <v>1.017400307257665</v>
       </c>
       <c r="K12">
-        <v>1.021731071585047</v>
+        <v>1.026419019560989</v>
       </c>
       <c r="L12">
-        <v>1.010146470646286</v>
+        <v>1.012011051986065</v>
       </c>
       <c r="M12">
-        <v>1.001642263953799</v>
+        <v>1.00386193193018</v>
       </c>
       <c r="N12">
-        <v>1.016808213709287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009724000901393</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029820699129719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9851559484880144</v>
+        <v>0.9872358761026899</v>
       </c>
       <c r="D13">
-        <v>1.006911321061399</v>
+        <v>1.011635509746162</v>
       </c>
       <c r="E13">
-        <v>0.9951136949029876</v>
+        <v>0.9969738284952846</v>
       </c>
       <c r="F13">
-        <v>0.9865440927607712</v>
+        <v>0.9887646451712024</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036919930408457</v>
+        <v>1.038964105793984</v>
       </c>
       <c r="J13">
-        <v>1.01550712426862</v>
+        <v>1.017495798339179</v>
       </c>
       <c r="K13">
-        <v>1.021863704900598</v>
+        <v>1.026499838853824</v>
       </c>
       <c r="L13">
-        <v>1.010290760564237</v>
+        <v>1.012115006086835</v>
       </c>
       <c r="M13">
-        <v>1.00188879064192</v>
+        <v>1.00406554006285</v>
       </c>
       <c r="N13">
-        <v>1.016949260865376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009756023198791</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029875331724769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9859621069944591</v>
+        <v>0.9878903589988398</v>
       </c>
       <c r="D14">
-        <v>1.007498331332377</v>
+        <v>1.012055357541197</v>
       </c>
       <c r="E14">
-        <v>0.9957425201803657</v>
+        <v>0.9974719598865518</v>
       </c>
       <c r="F14">
-        <v>0.9875156480207792</v>
+        <v>0.9895970785713561</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037175535462481</v>
+        <v>1.039131996645747</v>
       </c>
       <c r="J14">
-        <v>1.015967275843987</v>
+        <v>1.017812125047888</v>
       </c>
       <c r="K14">
-        <v>1.022296997304762</v>
+        <v>1.026770128573333</v>
       </c>
       <c r="L14">
-        <v>1.010762250379776</v>
+        <v>1.012458741016323</v>
       </c>
       <c r="M14">
-        <v>1.002694188509879</v>
+        <v>1.004735112353094</v>
       </c>
       <c r="N14">
-        <v>1.017410065908761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009862513283149</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030067872419109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9864571028207313</v>
+        <v>0.9882947333765052</v>
       </c>
       <c r="D15">
-        <v>1.007858878324851</v>
+        <v>1.012316672736584</v>
       </c>
       <c r="E15">
-        <v>0.9961288159091279</v>
+        <v>0.9977802141348638</v>
       </c>
       <c r="F15">
-        <v>0.9881121802435344</v>
+        <v>0.9901106257378374</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037332293705842</v>
+        <v>1.039236622971105</v>
       </c>
       <c r="J15">
-        <v>1.016249767937036</v>
+        <v>1.018008613815408</v>
       </c>
       <c r="K15">
-        <v>1.022562981398296</v>
+        <v>1.026939334856753</v>
       </c>
       <c r="L15">
-        <v>1.01105177230711</v>
+        <v>1.012671952959756</v>
       </c>
       <c r="M15">
-        <v>1.003188624049155</v>
+        <v>1.005148502496298</v>
       </c>
       <c r="N15">
-        <v>1.017692959172985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009928869545216</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030193420486134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9893126599767355</v>
+        <v>0.9906166169524355</v>
       </c>
       <c r="D16">
-        <v>1.009940472660851</v>
+        <v>1.013807890614746</v>
       </c>
       <c r="E16">
-        <v>0.9983600715927611</v>
+        <v>0.9995508271500312</v>
       </c>
       <c r="F16">
-        <v>0.9915532436771933</v>
+        <v>0.9930632822785526</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038233731074159</v>
+        <v>1.039828115432559</v>
       </c>
       <c r="J16">
-        <v>1.017878649429903</v>
+        <v>1.019129541076099</v>
       </c>
       <c r="K16">
-        <v>1.024096381190615</v>
+        <v>1.027896276728855</v>
       </c>
       <c r="L16">
-        <v>1.012722233698573</v>
+        <v>1.013891494682478</v>
       </c>
       <c r="M16">
-        <v>1.006039568517921</v>
+        <v>1.007521871305549</v>
       </c>
       <c r="N16">
-        <v>1.019324153864406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010306111277088</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030873210620979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.991081917984055</v>
+        <v>0.9920582327006739</v>
       </c>
       <c r="D17">
-        <v>1.011231594777599</v>
+        <v>1.014735478535775</v>
       </c>
       <c r="E17">
-        <v>0.9997449104150348</v>
+        <v>1.000652414760551</v>
       </c>
       <c r="F17">
-        <v>0.9936851270070334</v>
+        <v>0.9948960040370678</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038789691580939</v>
+        <v>1.040193103210669</v>
       </c>
       <c r="J17">
-        <v>1.018887171915057</v>
+        <v>1.01982505980665</v>
       </c>
       <c r="K17">
-        <v>1.025045518225386</v>
+        <v>1.028489981912605</v>
       </c>
       <c r="L17">
-        <v>1.013757413754507</v>
+        <v>1.014649014444819</v>
       </c>
       <c r="M17">
-        <v>1.007804792255029</v>
+        <v>1.008994120565011</v>
       </c>
       <c r="N17">
-        <v>1.020334108567168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010540189414245</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031295592676116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9921061871587696</v>
+        <v>0.9928878829285052</v>
       </c>
       <c r="D18">
-        <v>1.011979542568844</v>
+        <v>1.015265161657142</v>
       </c>
       <c r="E18">
-        <v>1.000547471251338</v>
+        <v>1.001286377465394</v>
       </c>
       <c r="F18">
-        <v>0.994919302941833</v>
+        <v>0.9959524922768004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039110619760089</v>
+        <v>1.040399490411921</v>
       </c>
       <c r="J18">
-        <v>1.019470766381364</v>
+        <v>1.020222296475157</v>
       </c>
       <c r="K18">
-        <v>1.025594648479477</v>
+        <v>1.028825500075732</v>
       </c>
       <c r="L18">
-        <v>1.014356761315215</v>
+        <v>1.015082943240942</v>
       </c>
       <c r="M18">
-        <v>1.00882631594729</v>
+        <v>1.009841458644707</v>
       </c>
       <c r="N18">
-        <v>1.020918531804556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01067334435281</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031521103854101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.99245414767963</v>
+        <v>0.9931745236905304</v>
       </c>
       <c r="D19">
-        <v>1.012233712552304</v>
+        <v>1.015451953287839</v>
       </c>
       <c r="E19">
-        <v>1.000820255077312</v>
+        <v>1.001506158173122</v>
       </c>
       <c r="F19">
-        <v>0.9953385700195734</v>
+        <v>0.9963159857718036</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03921948502713</v>
+        <v>1.040472869468146</v>
       </c>
       <c r="J19">
-        <v>1.019668976691164</v>
+        <v>1.020361741199734</v>
       </c>
       <c r="K19">
-        <v>1.025781136154898</v>
+        <v>1.028946049286906</v>
       </c>
       <c r="L19">
-        <v>1.014560377359693</v>
+        <v>1.015234539775513</v>
       </c>
       <c r="M19">
-        <v>1.009173275483603</v>
+        <v>1.010133727854834</v>
       </c>
       <c r="N19">
-        <v>1.021117023595732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010720507549414</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031612771938723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9908928952339841</v>
+        <v>0.9919036391169145</v>
       </c>
       <c r="D20">
-        <v>1.01109360414342</v>
+        <v>1.014635576276134</v>
       </c>
       <c r="E20">
-        <v>0.9995968702478845</v>
+        <v>1.000534139717796</v>
       </c>
       <c r="F20">
-        <v>0.9934573656561586</v>
+        <v>0.9946996366901774</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038730390650953</v>
+        <v>1.040153827669018</v>
       </c>
       <c r="J20">
-        <v>1.018779451368709</v>
+        <v>1.019750269438242</v>
       </c>
       <c r="K20">
-        <v>1.024944150954866</v>
+        <v>1.028425867604808</v>
       </c>
       <c r="L20">
-        <v>1.01364681191213</v>
+        <v>1.014567603420571</v>
       </c>
       <c r="M20">
-        <v>1.007616243337526</v>
+        <v>1.008836331312281</v>
       </c>
       <c r="N20">
-        <v>1.020226235045289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010514976398647</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031248916655387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9857250698277328</v>
+        <v>0.9877042824966225</v>
       </c>
       <c r="D21">
-        <v>1.007325707450762</v>
+        <v>1.011940970042777</v>
       </c>
       <c r="E21">
-        <v>0.9955575859668414</v>
+        <v>0.9973311731944137</v>
       </c>
       <c r="F21">
-        <v>0.9872299831283395</v>
+        <v>0.9893583711653909</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037100418290097</v>
+        <v>1.039087290506547</v>
       </c>
       <c r="J21">
-        <v>1.015831986332052</v>
+        <v>1.01772523216879</v>
       </c>
       <c r="K21">
-        <v>1.022169608593099</v>
+        <v>1.026699594276809</v>
       </c>
       <c r="L21">
-        <v>1.010623612858687</v>
+        <v>1.012363284335982</v>
       </c>
       <c r="M21">
-        <v>1.002457394538228</v>
+        <v>1.004544196596429</v>
       </c>
       <c r="N21">
-        <v>1.017274584270201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009833852288989</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030031606650037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9824019270522825</v>
+        <v>0.9850062877193229</v>
       </c>
       <c r="D22">
-        <v>1.004907679985081</v>
+        <v>1.010209289557107</v>
       </c>
       <c r="E22">
-        <v>0.9929682975485362</v>
+        <v>0.9952798343583242</v>
       </c>
       <c r="F22">
-        <v>0.9832246742053735</v>
+        <v>0.9859272248460427</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036043948836987</v>
+        <v>1.03839091680978</v>
       </c>
       <c r="J22">
-        <v>1.013934431750338</v>
+        <v>1.016418973412276</v>
       </c>
       <c r="K22">
-        <v>1.020382537702619</v>
+        <v>1.025581175677393</v>
       </c>
       <c r="L22">
-        <v>1.008680352816045</v>
+        <v>1.010945382192638</v>
       </c>
       <c r="M22">
-        <v>0.9991359429800778</v>
+        <v>1.001782717835382</v>
       </c>
       <c r="N22">
-        <v>1.015374334943328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009393768066024</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029227231781139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9841708211010752</v>
+        <v>0.9864337010500204</v>
       </c>
       <c r="D23">
-        <v>1.006194301813122</v>
+        <v>1.01111891030137</v>
       </c>
       <c r="E23">
-        <v>0.994345776466388</v>
+        <v>0.9963633430165539</v>
       </c>
       <c r="F23">
-        <v>0.9853567891016718</v>
+        <v>0.9877451978895531</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03660707434615</v>
+        <v>1.038756459147338</v>
       </c>
       <c r="J23">
-        <v>1.014944687237478</v>
+        <v>1.01710656505777</v>
       </c>
       <c r="K23">
-        <v>1.021334047224996</v>
+        <v>1.026165485190113</v>
       </c>
       <c r="L23">
-        <v>1.009714652748062</v>
+        <v>1.011692697860503</v>
       </c>
       <c r="M23">
-        <v>1.000904336768178</v>
+        <v>1.003244854606537</v>
       </c>
       <c r="N23">
-        <v>1.016386025109138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009624708573288</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029630670760991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909783302551076</v>
+        <v>0.9919609023009409</v>
       </c>
       <c r="D24">
-        <v>1.011155972033655</v>
+        <v>1.014662645640062</v>
       </c>
       <c r="E24">
-        <v>0.9996637792432154</v>
+        <v>1.00057628124144</v>
       </c>
       <c r="F24">
-        <v>0.9935603099320037</v>
+        <v>0.9947764022845017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038757196539187</v>
+        <v>1.04016241617319</v>
       </c>
       <c r="J24">
-        <v>1.018828140021692</v>
+        <v>1.019771961620915</v>
       </c>
       <c r="K24">
-        <v>1.024989968299283</v>
+        <v>1.028437070345366</v>
       </c>
       <c r="L24">
-        <v>1.013696801868599</v>
+        <v>1.01459328428779</v>
       </c>
       <c r="M24">
-        <v>1.007701465462096</v>
+        <v>1.008895875365165</v>
       </c>
       <c r="N24">
-        <v>1.020274992841744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010521161413525</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031229261507632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9985775858181929</v>
+        <v>0.998169964940589</v>
       </c>
       <c r="D25">
-        <v>1.016713172550709</v>
+        <v>1.018665737732828</v>
       </c>
       <c r="E25">
-        <v>1.005632587345262</v>
+        <v>1.005339467408838</v>
       </c>
       <c r="F25">
-        <v>1.002717162419007</v>
+        <v>1.0026692200981</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041121330006527</v>
+        <v>1.041709373094893</v>
       </c>
       <c r="J25">
-        <v>1.023152914880479</v>
+        <v>1.022759074412538</v>
       </c>
       <c r="K25">
-        <v>1.029057462156781</v>
+        <v>1.030981041126954</v>
       </c>
       <c r="L25">
-        <v>1.01814408941406</v>
+        <v>1.017855456663354</v>
       </c>
       <c r="M25">
-        <v>1.01527344387161</v>
+        <v>1.015226240697866</v>
       </c>
       <c r="N25">
-        <v>1.024605909376889</v>
+        <v>1.011525809335945</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033025121720365</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002947515601139</v>
+        <v>1.002995814062838</v>
       </c>
       <c r="D2">
-        <v>1.021744334311339</v>
+        <v>1.021466208110687</v>
       </c>
       <c r="E2">
-        <v>1.0090247750182</v>
+        <v>1.009070056839585</v>
       </c>
       <c r="F2">
-        <v>1.008747386873394</v>
+        <v>1.008754536710542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042862145063768</v>
+        <v>1.04279018156739</v>
       </c>
       <c r="J2">
-        <v>1.025040422977344</v>
+        <v>1.025087288578913</v>
       </c>
       <c r="K2">
-        <v>1.032908824977786</v>
+        <v>1.032634370626555</v>
       </c>
       <c r="L2">
-        <v>1.020359796059957</v>
+        <v>1.020404461194171</v>
       </c>
       <c r="M2">
-        <v>1.020086187148907</v>
+        <v>1.020093239541334</v>
       </c>
       <c r="N2">
-        <v>1.012291198090968</v>
+        <v>1.013880646296037</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034339610108795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034154368221993</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020789136480115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006346277462969</v>
+        <v>1.006286020918588</v>
       </c>
       <c r="D3">
-        <v>1.023953267440032</v>
+        <v>1.023526321304187</v>
       </c>
       <c r="E3">
-        <v>1.011660824371084</v>
+        <v>1.011611653145419</v>
       </c>
       <c r="F3">
-        <v>1.013067370449077</v>
+        <v>1.012974251076103</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043672344028536</v>
+        <v>1.043527269035236</v>
       </c>
       <c r="J3">
-        <v>1.026665419047789</v>
+        <v>1.026606777255844</v>
       </c>
       <c r="K3">
-        <v>1.034288567516986</v>
+        <v>1.033866774085108</v>
       </c>
       <c r="L3">
-        <v>1.022146645605769</v>
+        <v>1.022098085631372</v>
       </c>
       <c r="M3">
-        <v>1.023535738087413</v>
+        <v>1.02344377235163</v>
       </c>
       <c r="N3">
-        <v>1.012837395711407</v>
+        <v>1.014286623888949</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03531253807498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035022837285107</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02101940396796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008509306937476</v>
+        <v>1.008380645063497</v>
       </c>
       <c r="D4">
-        <v>1.025363269262513</v>
+        <v>1.024842027731277</v>
       </c>
       <c r="E4">
-        <v>1.013344207665336</v>
+        <v>1.013235428710473</v>
       </c>
       <c r="F4">
-        <v>1.015816903226328</v>
+        <v>1.015660756422098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044180629574033</v>
+        <v>1.04398921373462</v>
       </c>
       <c r="J4">
-        <v>1.027697820313023</v>
+        <v>1.027572375706019</v>
       </c>
       <c r="K4">
-        <v>1.035164923703927</v>
+        <v>1.034649598764606</v>
       </c>
       <c r="L4">
-        <v>1.023284204062945</v>
+        <v>1.023176695711393</v>
       </c>
       <c r="M4">
-        <v>1.025728107791714</v>
+        <v>1.025573774019801</v>
       </c>
       <c r="N4">
-        <v>1.013184398004159</v>
+        <v>1.014544635575594</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035933104126832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03557734997998</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021163340703727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00941275418997</v>
+        <v>1.009255678528982</v>
       </c>
       <c r="D5">
-        <v>1.025955282464045</v>
+        <v>1.025394798203388</v>
       </c>
       <c r="E5">
-        <v>1.014048964868899</v>
+        <v>1.013915406644577</v>
       </c>
       <c r="F5">
-        <v>1.016964596526326</v>
+        <v>1.016782307483219</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044392430517664</v>
+        <v>1.044181714743402</v>
       </c>
       <c r="J5">
-        <v>1.028129850137555</v>
+        <v>1.027976586195802</v>
       </c>
       <c r="K5">
-        <v>1.035533218046636</v>
+        <v>1.034978928676484</v>
       </c>
       <c r="L5">
-        <v>1.023760313040331</v>
+        <v>1.023628273272948</v>
       </c>
       <c r="M5">
-        <v>1.026642918626855</v>
+        <v>1.02646268757613</v>
       </c>
       <c r="N5">
-        <v>1.013329799667702</v>
+        <v>1.0146528019983</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036200729085384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035818134235862</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02122374779479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009567040416479</v>
+        <v>1.009405124002851</v>
       </c>
       <c r="D6">
-        <v>1.026059000856274</v>
+        <v>1.025491875752298</v>
       </c>
       <c r="E6">
-        <v>1.014169751249561</v>
+        <v>1.014031969109529</v>
       </c>
       <c r="F6">
-        <v>1.017159595915305</v>
+        <v>1.016972858785388</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044430061015229</v>
+        <v>1.044216065789251</v>
       </c>
       <c r="J6">
-        <v>1.028205137625983</v>
+        <v>1.028047130422397</v>
       </c>
       <c r="K6">
-        <v>1.035599361326824</v>
+        <v>1.035038476168377</v>
       </c>
       <c r="L6">
-        <v>1.023842725729777</v>
+        <v>1.023706502889997</v>
       </c>
       <c r="M6">
-        <v>1.026798862035771</v>
+        <v>1.026614223086333</v>
       </c>
       <c r="N6">
-        <v>1.01335537549466</v>
+        <v>1.01467186852667</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036256287530821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035869897297297</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021235146930837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008529688505575</v>
+        <v>1.00840690292071</v>
       </c>
       <c r="D7">
-        <v>1.02538346798586</v>
+        <v>1.024866142841214</v>
       </c>
       <c r="E7">
-        <v>1.013361051413412</v>
+        <v>1.013257500724311</v>
       </c>
       <c r="F7">
-        <v>1.015840096915138</v>
+        <v>1.015689077882735</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044189611019647</v>
+        <v>1.044000966731742</v>
       </c>
       <c r="J7">
-        <v>1.027711680523863</v>
+        <v>1.027591963952953</v>
       </c>
       <c r="K7">
-        <v>1.03518199133727</v>
+        <v>1.034670536056386</v>
       </c>
       <c r="L7">
-        <v>1.023297902860062</v>
+        <v>1.023195561242431</v>
       </c>
       <c r="M7">
-        <v>1.025748093664151</v>
+        <v>1.025598827428301</v>
       </c>
       <c r="N7">
-        <v>1.013189709346002</v>
+        <v>1.014576153236686</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035965387778723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035614367818136</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021169065702111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004114099952228</v>
+        <v>1.004145012469631</v>
       </c>
       <c r="D8">
-        <v>1.022510076563946</v>
+        <v>1.022195298401738</v>
       </c>
       <c r="E8">
-        <v>1.009929585110448</v>
+        <v>1.009960137394543</v>
       </c>
       <c r="F8">
-        <v>1.010226802759529</v>
+        <v>1.010217007882606</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043146906321095</v>
+        <v>1.043059617270222</v>
       </c>
       <c r="J8">
-        <v>1.025603630314291</v>
+        <v>1.025633656194357</v>
       </c>
       <c r="K8">
-        <v>1.033393528717877</v>
+        <v>1.033082784470629</v>
       </c>
       <c r="L8">
-        <v>1.020976712965896</v>
+        <v>1.021006861561534</v>
       </c>
       <c r="M8">
-        <v>1.021270004767405</v>
+        <v>1.021260339221536</v>
       </c>
       <c r="N8">
-        <v>1.012481350509744</v>
+        <v>1.014105588931544</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034705372035978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034496735708939</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020876615869314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9960313238368121</v>
+        <v>0.9963276472061986</v>
       </c>
       <c r="D9">
-        <v>1.017274062061805</v>
+        <v>1.017317762844616</v>
       </c>
       <c r="E9">
-        <v>1.003693469511733</v>
+        <v>1.003954391379824</v>
       </c>
       <c r="F9">
-        <v>0.9999552159811668</v>
+        <v>1.000191682848365</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041174585615158</v>
+        <v>1.041263758578559</v>
       </c>
       <c r="J9">
-        <v>1.021725008892987</v>
+        <v>1.02201075554468</v>
       </c>
       <c r="K9">
-        <v>1.030092961452473</v>
+        <v>1.030135983694829</v>
       </c>
       <c r="L9">
-        <v>1.016726905634233</v>
+        <v>1.016983635498624</v>
       </c>
       <c r="M9">
-        <v>1.013049019816544</v>
+        <v>1.013281650897354</v>
       </c>
       <c r="N9">
-        <v>1.011176920475184</v>
+        <v>1.013146633712135</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032368435630252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032409660012284</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020311664977667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9904345731821979</v>
+        <v>0.9909485959142114</v>
       </c>
       <c r="D10">
-        <v>1.013676359022035</v>
+        <v>1.013992117772845</v>
       </c>
       <c r="E10">
-        <v>0.999409380164955</v>
+        <v>0.9998591408355746</v>
       </c>
       <c r="F10">
-        <v>0.992837716849883</v>
+        <v>0.9932764629271059</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039773216755111</v>
+        <v>1.04000017567122</v>
       </c>
       <c r="J10">
-        <v>1.019032912569449</v>
+        <v>1.019525993155663</v>
       </c>
       <c r="K10">
-        <v>1.027802996402296</v>
+        <v>1.028113253704466</v>
       </c>
       <c r="L10">
-        <v>1.013789306629812</v>
+        <v>1.014230939003951</v>
       </c>
       <c r="M10">
-        <v>1.00733750397956</v>
+        <v>1.007768183394453</v>
       </c>
       <c r="N10">
-        <v>1.010271922487715</v>
+        <v>1.012599457192677</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030766184037624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030998041577564</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019914500415843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9879675923902914</v>
+        <v>0.9886260587266912</v>
       </c>
       <c r="D11">
-        <v>1.012105241485056</v>
+        <v>1.012575938032223</v>
       </c>
       <c r="E11">
-        <v>0.9975308215806791</v>
+        <v>0.9981067785068304</v>
       </c>
       <c r="F11">
-        <v>0.9896951734910028</v>
+        <v>0.9902672577971174</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039151978894635</v>
+        <v>1.039463319921285</v>
       </c>
       <c r="J11">
-        <v>1.017849644392884</v>
+        <v>1.018479783322991</v>
       </c>
       <c r="K11">
-        <v>1.026802425236716</v>
+        <v>1.027264524620958</v>
       </c>
       <c r="L11">
-        <v>1.012499453701379</v>
+        <v>1.01306448674743</v>
       </c>
       <c r="M11">
-        <v>1.00481407589083</v>
+        <v>1.005375083438253</v>
       </c>
       <c r="N11">
-        <v>1.00987518189721</v>
+        <v>1.012548710307668</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030091782760818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030434217634997</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019750178922505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9870370147624751</v>
+        <v>0.9877545726285848</v>
       </c>
       <c r="D12">
-        <v>1.011509042157571</v>
+        <v>1.012041469236318</v>
       </c>
       <c r="E12">
-        <v>0.9968227262162989</v>
+        <v>0.9974503929132672</v>
       </c>
       <c r="F12">
-        <v>0.9885112655567065</v>
+        <v>0.9891379984146708</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038913652970738</v>
+        <v>1.039259113017341</v>
       </c>
       <c r="J12">
-        <v>1.017400307257665</v>
+        <v>1.018086377124899</v>
       </c>
       <c r="K12">
-        <v>1.026419019560989</v>
+        <v>1.026941553507738</v>
       </c>
       <c r="L12">
-        <v>1.012011051986065</v>
+        <v>1.01262660292836</v>
       </c>
       <c r="M12">
-        <v>1.00386193193018</v>
+        <v>1.004476298457036</v>
       </c>
       <c r="N12">
-        <v>1.009724000901393</v>
+        <v>1.012545217383838</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029820699129719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030205868778563</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019686748912868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9872358761026899</v>
+        <v>0.9879406043192729</v>
       </c>
       <c r="D13">
-        <v>1.011635509746162</v>
+        <v>1.012154583157101</v>
       </c>
       <c r="E13">
-        <v>0.9969738284952846</v>
+        <v>0.9975902676156743</v>
       </c>
       <c r="F13">
-        <v>0.9887646451712024</v>
+        <v>0.9893795059561397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038964105793984</v>
+        <v>1.039302174455453</v>
       </c>
       <c r="J13">
-        <v>1.017495798339179</v>
+        <v>1.018169732222455</v>
       </c>
       <c r="K13">
-        <v>1.026499838853824</v>
+        <v>1.027009302532969</v>
       </c>
       <c r="L13">
-        <v>1.012115006086835</v>
+        <v>1.012719590736842</v>
       </c>
       <c r="M13">
-        <v>1.00406554006285</v>
+        <v>1.004668317625992</v>
       </c>
       <c r="N13">
-        <v>1.009756023198791</v>
+        <v>1.012544932270269</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029875331724769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030251016932084</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019699890122537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9878903589988398</v>
+        <v>0.988553636317848</v>
       </c>
       <c r="D14">
-        <v>1.012055357541197</v>
+        <v>1.012531103049407</v>
       </c>
       <c r="E14">
-        <v>0.9974719598865518</v>
+        <v>0.9980521263895191</v>
       </c>
       <c r="F14">
-        <v>0.9895970785713561</v>
+        <v>0.9901736091581461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039131996645747</v>
+        <v>1.039446123000618</v>
       </c>
       <c r="J14">
-        <v>1.017812125047888</v>
+        <v>1.018446820900693</v>
       </c>
       <c r="K14">
-        <v>1.026770128573333</v>
+        <v>1.027237172274754</v>
       </c>
       <c r="L14">
-        <v>1.012458741016323</v>
+        <v>1.013027887703858</v>
       </c>
       <c r="M14">
-        <v>1.004735112353094</v>
+        <v>1.005300462554767</v>
       </c>
       <c r="N14">
-        <v>1.009862513283149</v>
+        <v>1.012547953917275</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030067872419109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030413699782068</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019744736700624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9882947333765052</v>
+        <v>0.9889330058316979</v>
       </c>
       <c r="D15">
-        <v>1.012316672736584</v>
+        <v>1.012766119625492</v>
       </c>
       <c r="E15">
-        <v>0.9977802141348638</v>
+        <v>0.9983385043944272</v>
       </c>
       <c r="F15">
-        <v>0.9901106257378374</v>
+        <v>0.9906640520828531</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039236622971105</v>
+        <v>1.039536258331158</v>
       </c>
       <c r="J15">
-        <v>1.018008613815408</v>
+        <v>1.01861961930719</v>
       </c>
       <c r="K15">
-        <v>1.026939334856753</v>
+        <v>1.027380622401897</v>
       </c>
       <c r="L15">
-        <v>1.012671952959756</v>
+        <v>1.013219719971589</v>
       </c>
       <c r="M15">
-        <v>1.005148502496298</v>
+        <v>1.005691284553607</v>
       </c>
       <c r="N15">
-        <v>1.009928869545216</v>
+        <v>1.012552621899098</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030193420486134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03052160536647</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019773293651137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9906166169524355</v>
+        <v>0.9911209516139554</v>
       </c>
       <c r="D16">
-        <v>1.013807890614746</v>
+        <v>1.01411317484589</v>
       </c>
       <c r="E16">
-        <v>0.9995508271500312</v>
+        <v>0.9999921038055811</v>
       </c>
       <c r="F16">
-        <v>0.9930632822785526</v>
+        <v>0.993493099990482</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039828115432559</v>
+        <v>1.040049329724666</v>
       </c>
       <c r="J16">
-        <v>1.019129541076099</v>
+        <v>1.01961340465631</v>
       </c>
       <c r="K16">
-        <v>1.027896276728855</v>
+        <v>1.02819625929462</v>
       </c>
       <c r="L16">
-        <v>1.013891494682478</v>
+        <v>1.014324822657924</v>
       </c>
       <c r="M16">
-        <v>1.007521871305549</v>
+        <v>1.007943814362306</v>
       </c>
       <c r="N16">
-        <v>1.010306111277088</v>
+        <v>1.012611662873073</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030873210620979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031101783632403</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019933519749711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9920582327006739</v>
+        <v>0.9924890811609257</v>
       </c>
       <c r="D17">
-        <v>1.014735478535775</v>
+        <v>1.014958242472374</v>
       </c>
       <c r="E17">
-        <v>1.000652414760551</v>
+        <v>1.001029615276488</v>
       </c>
       <c r="F17">
-        <v>0.9948960040370678</v>
+        <v>0.9952580243045378</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040193103210669</v>
+        <v>1.040370366618785</v>
       </c>
       <c r="J17">
-        <v>1.01982505980665</v>
+        <v>1.020238984481918</v>
       </c>
       <c r="K17">
-        <v>1.028489981912605</v>
+        <v>1.028708986034896</v>
       </c>
       <c r="L17">
-        <v>1.014649014444819</v>
+        <v>1.015019615659547</v>
       </c>
       <c r="M17">
-        <v>1.008994120565011</v>
+        <v>1.009349711545185</v>
       </c>
       <c r="N17">
-        <v>1.010540189414245</v>
+        <v>1.012684835729849</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031295592676116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031467155544159</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020034227910019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9928878829285052</v>
+        <v>0.9932802105184145</v>
       </c>
       <c r="D18">
-        <v>1.015265161657142</v>
+        <v>1.015443065048679</v>
       </c>
       <c r="E18">
-        <v>1.001286377465394</v>
+        <v>1.001630047160041</v>
       </c>
       <c r="F18">
-        <v>0.9959524922768004</v>
+        <v>0.9962789361287607</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040399490411921</v>
+        <v>1.040553288474228</v>
       </c>
       <c r="J18">
-        <v>1.020222296475157</v>
+        <v>1.020599509385733</v>
       </c>
       <c r="K18">
-        <v>1.028825500075732</v>
+        <v>1.029000451045272</v>
       </c>
       <c r="L18">
-        <v>1.015082943240942</v>
+        <v>1.01542070306209</v>
       </c>
       <c r="M18">
-        <v>1.009841458644707</v>
+        <v>1.010162210603041</v>
       </c>
       <c r="N18">
-        <v>1.01067334435281</v>
+        <v>1.012739925995289</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031521103854101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031660382812996</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02009059711836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9931745236905304</v>
+        <v>0.9935542178867101</v>
       </c>
       <c r="D19">
-        <v>1.015451953287839</v>
+        <v>1.015614903835772</v>
       </c>
       <c r="E19">
-        <v>1.001506158173122</v>
+        <v>1.001838834596975</v>
       </c>
       <c r="F19">
-        <v>0.9963159857718036</v>
+        <v>0.9966307553354998</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040472869468146</v>
+        <v>1.040618891932013</v>
       </c>
       <c r="J19">
-        <v>1.020361741199734</v>
+        <v>1.020726904717458</v>
       </c>
       <c r="K19">
-        <v>1.028946049286906</v>
+        <v>1.02910631124209</v>
       </c>
       <c r="L19">
-        <v>1.015234539775513</v>
+        <v>1.015561529219304</v>
       </c>
       <c r="M19">
-        <v>1.010133727854834</v>
+        <v>1.010443043650818</v>
       </c>
       <c r="N19">
-        <v>1.010720507549414</v>
+        <v>1.012762684526375</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031612771938723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031742286350868</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020111776929548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9919036391169145</v>
+        <v>0.9923419766373246</v>
       </c>
       <c r="D20">
-        <v>1.014635576276134</v>
+        <v>1.014866901887097</v>
       </c>
       <c r="E20">
-        <v>1.000534139717796</v>
+        <v>1.000917865720098</v>
       </c>
       <c r="F20">
-        <v>0.9946996366901774</v>
+        <v>0.9950685686027172</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040153827669018</v>
+        <v>1.04033561338497</v>
       </c>
       <c r="J20">
-        <v>1.019750269438242</v>
+        <v>1.020171327777934</v>
       </c>
       <c r="K20">
-        <v>1.028425867604808</v>
+        <v>1.028653276821713</v>
       </c>
       <c r="L20">
-        <v>1.014567603420571</v>
+        <v>1.014944594743942</v>
       </c>
       <c r="M20">
-        <v>1.008836331312281</v>
+        <v>1.009198689105932</v>
       </c>
       <c r="N20">
-        <v>1.010514976398647</v>
+        <v>1.012675382615548</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031248916655387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031426293193606</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020023216294885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9877042824966225</v>
+        <v>0.9883955576165037</v>
       </c>
       <c r="D21">
-        <v>1.011940970042777</v>
+        <v>1.012440862700587</v>
       </c>
       <c r="E21">
-        <v>0.9973311731944137</v>
+        <v>0.997936115194489</v>
       </c>
       <c r="F21">
-        <v>0.9893583711653909</v>
+        <v>0.9899604316131734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039087290506547</v>
+        <v>1.039416252918518</v>
       </c>
       <c r="J21">
-        <v>1.01772523216879</v>
+        <v>1.018386597639356</v>
       </c>
       <c r="K21">
-        <v>1.026699594276809</v>
+        <v>1.027190311121222</v>
       </c>
       <c r="L21">
-        <v>1.012363284335982</v>
+        <v>1.012956694286356</v>
       </c>
       <c r="M21">
-        <v>1.004544196596429</v>
+        <v>1.005134536095653</v>
       </c>
       <c r="N21">
-        <v>1.009833852288989</v>
+        <v>1.012613851914184</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030031606650037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030395483456268</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019737690579441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9850062877193229</v>
+        <v>0.9858594813155502</v>
       </c>
       <c r="D22">
-        <v>1.010209289557107</v>
+        <v>1.010881392112707</v>
       </c>
       <c r="E22">
-        <v>0.9952798343583242</v>
+        <v>0.9960263358416928</v>
       </c>
       <c r="F22">
-        <v>0.9859272248460427</v>
+        <v>0.9866797617078796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03839091680978</v>
+        <v>1.038814253336461</v>
       </c>
       <c r="J22">
-        <v>1.016418973412276</v>
+        <v>1.017233111584692</v>
       </c>
       <c r="K22">
-        <v>1.025581175677393</v>
+        <v>1.026240325212917</v>
       </c>
       <c r="L22">
-        <v>1.010945382192638</v>
+        <v>1.01167692494928</v>
       </c>
       <c r="M22">
-        <v>1.001782717835382</v>
+        <v>1.002519795434918</v>
       </c>
       <c r="N22">
-        <v>1.009393768066024</v>
+        <v>1.012561564277377</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029227231781139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029708901778869</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019548766843646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9864337010500204</v>
+        <v>0.9871906112637694</v>
       </c>
       <c r="D23">
-        <v>1.01111891030137</v>
+        <v>1.01169207220904</v>
       </c>
       <c r="E23">
-        <v>0.9963633430165539</v>
+        <v>0.9970254797276605</v>
       </c>
       <c r="F23">
-        <v>0.9877451978895531</v>
+        <v>0.9884083727969508</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038756459147338</v>
+        <v>1.039124576020456</v>
       </c>
       <c r="J23">
-        <v>1.01710656505777</v>
+        <v>1.017829838964959</v>
       </c>
       <c r="K23">
-        <v>1.026165485190113</v>
+        <v>1.026727880183629</v>
       </c>
       <c r="L23">
-        <v>1.011692697860503</v>
+        <v>1.012341909918893</v>
       </c>
       <c r="M23">
-        <v>1.003244854606537</v>
+        <v>1.003894785912302</v>
       </c>
       <c r="N23">
-        <v>1.009624708573288</v>
+        <v>1.01254545938528</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029630670760991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030042987862395</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019644035684564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9919609023009409</v>
+        <v>0.9923964132761409</v>
       </c>
       <c r="D24">
-        <v>1.014662645640062</v>
+        <v>1.014890595228243</v>
       </c>
       <c r="E24">
-        <v>1.00057628124144</v>
+        <v>1.000957561282341</v>
       </c>
       <c r="F24">
-        <v>0.9947764022845017</v>
+        <v>0.9951427179227976</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04016241617319</v>
+        <v>1.040342492372714</v>
       </c>
       <c r="J24">
-        <v>1.019771961620915</v>
+        <v>1.020190331733447</v>
       </c>
       <c r="K24">
-        <v>1.028437070345366</v>
+        <v>1.028661165899866</v>
       </c>
       <c r="L24">
-        <v>1.01459328428779</v>
+        <v>1.014967881913231</v>
       </c>
       <c r="M24">
-        <v>1.008895875365165</v>
+        <v>1.009255673217999</v>
       </c>
       <c r="N24">
-        <v>1.010521161413525</v>
+        <v>1.012675637690372</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031229261507632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03140162431605</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020022932677342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.998169964940589</v>
+        <v>0.9983873174150861</v>
       </c>
       <c r="D25">
-        <v>1.018665737732828</v>
+        <v>1.018608597697488</v>
       </c>
       <c r="E25">
-        <v>1.005339467408838</v>
+        <v>1.005531773168345</v>
       </c>
       <c r="F25">
-        <v>1.0026692200981</v>
+        <v>1.002832558749177</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041709373094893</v>
+        <v>1.041747767694887</v>
       </c>
       <c r="J25">
-        <v>1.022759074412538</v>
+        <v>1.022969076916553</v>
       </c>
       <c r="K25">
-        <v>1.030981041126954</v>
+        <v>1.030924747340665</v>
       </c>
       <c r="L25">
-        <v>1.017855456663354</v>
+        <v>1.018044818160418</v>
       </c>
       <c r="M25">
-        <v>1.015226240697866</v>
+        <v>1.01538706145741</v>
       </c>
       <c r="N25">
-        <v>1.011525809335945</v>
+        <v>1.013370869943847</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033025121720365</v>
+        <v>1.032998924255842</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020466421684895</v>
       </c>
     </row>
   </sheetData>
